--- a/data/trans_dic/P2C_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R2-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,87; 38,77</t>
+          <t>29,69; 38,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>38,62; 48,77</t>
+          <t>38,46; 49,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,17; 31,09</t>
+          <t>22,02; 30,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,84; 13,49</t>
+          <t>8,0; 13,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,18; 42,12</t>
+          <t>31,46; 42,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>47,93; 60,13</t>
+          <t>47,82; 59,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,8; 48,48</t>
+          <t>37,55; 48,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,84; 16,47</t>
+          <t>11,38; 16,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>31,42; 38,73</t>
+          <t>31,76; 38,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>44,67; 52,27</t>
+          <t>43,86; 51,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>30,08; 37,15</t>
+          <t>30,36; 37,31</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,27; 14,15</t>
+          <t>10,04; 14,0</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,86; 34,37</t>
+          <t>24,49; 34,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>40,35; 51,42</t>
+          <t>40,62; 51,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,71; 43,45</t>
+          <t>32,65; 42,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,89; 12,62</t>
+          <t>7,04; 12,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,45; 45,45</t>
+          <t>35,22; 45,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,18; 67,4</t>
+          <t>56,04; 67,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,47; 53,57</t>
+          <t>43,69; 54,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,68; 18,02</t>
+          <t>11,72; 17,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31,24; 38,6</t>
+          <t>31,5; 38,48</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>49,12; 56,85</t>
+          <t>49,31; 56,95</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>39,47; 47,02</t>
+          <t>39,47; 46,97</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,85; 14,06</t>
+          <t>9,99; 14,32</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,9; 35,21</t>
+          <t>26,89; 35,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>41,37; 49,47</t>
+          <t>41,0; 49,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,48; 37,4</t>
+          <t>29,18; 37,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 17,33</t>
+          <t>3,77; 17,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>37,34; 51,97</t>
+          <t>38,23; 52,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>42,42; 55,56</t>
+          <t>43,38; 55,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>32,73; 48,18</t>
+          <t>32,86; 48,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,57; 17,71</t>
+          <t>9,34; 17,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,95; 37,95</t>
+          <t>30,93; 37,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>43,27; 50,67</t>
+          <t>43,2; 50,02</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>31,31; 38,85</t>
+          <t>31,15; 38,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,77; 15,99</t>
+          <t>4,59; 16,27</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,71; 32,02</t>
+          <t>26,84; 31,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>45,21; 51,53</t>
+          <t>44,94; 51,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,21; 34,6</t>
+          <t>28,46; 34,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,0; 17,34</t>
+          <t>12,76; 17,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,75; 42,13</t>
+          <t>35,29; 42,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>53,45; 61,08</t>
+          <t>53,0; 60,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,81; 47,01</t>
+          <t>39,95; 46,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,54; 64,37</t>
+          <t>14,64; 65,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,34; 34,51</t>
+          <t>30,54; 34,91</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>49,41; 53,92</t>
+          <t>49,37; 54,23</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>34,29; 38,67</t>
+          <t>34,62; 38,93</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,72; 48,17</t>
+          <t>14,6; 44,74</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,38; 34,51</t>
+          <t>24,96; 34,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>38,86; 47,8</t>
+          <t>38,98; 48,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,31; 37,33</t>
+          <t>29,38; 37,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,02; 15,83</t>
+          <t>9,81; 15,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,7; 41,99</t>
+          <t>33,99; 42,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>52,36; 59,51</t>
+          <t>52,7; 59,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>37,34; 44,76</t>
+          <t>37,16; 43,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,52; 21,27</t>
+          <t>13,71; 21,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31,19; 37,76</t>
+          <t>31,48; 37,66</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>48,03; 53,82</t>
+          <t>48,19; 54,19</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>34,73; 39,95</t>
+          <t>34,76; 40,15</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,28; 18,31</t>
+          <t>13,22; 18,34</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,54; 22,21</t>
+          <t>13,44; 22,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>26,05; 36,62</t>
+          <t>26,38; 36,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,46; 27,51</t>
+          <t>16,76; 27,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,27; 12,41</t>
+          <t>3,52; 12,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,57; 29,61</t>
+          <t>24,56; 29,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,41; 44,42</t>
+          <t>38,41; 44,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>26,1; 31,76</t>
+          <t>26,24; 31,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,49; 24,68</t>
+          <t>19,65; 24,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23,17; 27,42</t>
+          <t>22,75; 27,44</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>37,17; 42,41</t>
+          <t>36,9; 42,26</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>24,99; 29,66</t>
+          <t>24,88; 29,83</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,11; 20,69</t>
+          <t>16,09; 20,66</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>27,68; 30,82</t>
+          <t>27,52; 30,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>43,1; 46,52</t>
+          <t>43,25; 46,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>29,77; 33,02</t>
+          <t>29,7; 32,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,21; 13,16</t>
+          <t>9,05; 13,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>32,94; 36,21</t>
+          <t>32,89; 36,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>49,84; 53,27</t>
+          <t>49,89; 53,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>37,18; 40,54</t>
+          <t>36,87; 40,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,65; 37,03</t>
+          <t>16,63; 36,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>30,81; 32,99</t>
+          <t>30,68; 33,01</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>46,99; 49,5</t>
+          <t>47,05; 49,47</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>33,92; 36,22</t>
+          <t>33,91; 36,26</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>13,98; 26,85</t>
+          <t>14,0; 25,02</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con al menos un miembro que requiere cuidados y estos son no remunerados</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>160982</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>191590</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>112362</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>53166</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>112320</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>170699</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>149266</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>60783</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>273303</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>362288</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>261628</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>113949</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>140673; 181613</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>168158; 214332</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>94469; 132442</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>40436; 70170</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>96480; 129250</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>150381; 187766</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>130314; 167105</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>50936; 75914</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>247850; 301283</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>329716; 387859</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>235630; 289601</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>95669; 133355</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>107916</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>191056</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>143078</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>42724</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>149474</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>209363</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>181054</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>56077</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>257390</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>400419</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>324132</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>98801</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>89873; 126717</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>170131; 215465</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>123153; 161608</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>31835; 56409</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>130983; 167912</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>189413; 227207</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>162632; 201312</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>44854; 68426</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>232748; 284297</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>373204; 430965</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>295790; 352012</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>83396; 119536</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>168582</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>285410</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>174068</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>69053</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>76121</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>128397</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>66629</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>22121</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>244703</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>413807</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>240697</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>91174</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>145832; 191175</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>258087; 308960</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>152296; 195529</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>25218; 116634</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>64146; 88744</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>112840; 145407</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>54589; 80925</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15582; 28872</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>219641; 268467</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>384297; 444936</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>214341; 266221</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>38363; 135876</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>709</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>362407</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>559629</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>364146</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>155024</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>274511</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>436296</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>359372</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>324167</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>636919</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>995926</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>723518</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>479191</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>332326; 395448</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>520805; 596972</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>327232; 393825</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>132039; 177847</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>252060; 302601</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>406357; 464142</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>329915; 386526</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>143221; 638521</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>596427; 681636</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>950788; 1044236</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>683929; 769002</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>293923; 900493</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>102986</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>222964</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>205333</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>60553</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>215808</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>426682</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>300014</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>152533</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>318794</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>649646</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>505348</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>213086</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>87498; 121843</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>199007; 245465</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>182394; 231024</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>46593; 75742</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>193311; 240826</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>401314; 455851</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>274295; 324720</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>115369; 179737</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>289400; 346197</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>613047; 689365</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>472378; 545592</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>173968; 241452</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>52559</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>83937</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>62570</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>16281</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>337617</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>460371</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>310712</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>167729</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>390175</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>544308</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>373283</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>184010</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>40069; 66566</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>70398; 98450</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>48136; 78339</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>8471; 30073</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>306756; 369973</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>426132; 492887</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>283903; 343176</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>149612; 188716</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>351974; 424439</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>507822; 581628</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>340636; 408454</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>161185; 206970</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>928</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1444</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1703</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1310</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2054</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>3147</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>2320</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1403</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>955433</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1534587</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1061559</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>396800</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1165851</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1831806</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1367046</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>783411</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2121284</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>3366394</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>2428605</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1180211</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>899968; 1006928</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1480051; 1594496</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1005686; 1111754</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>305641; 447149</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1111182; 1219543</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1771192; 1890883</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1302001; 1429607</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>594811; 1295902</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2039989; 2194806</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>3280019; 3449163</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2345902; 2508417</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>973764; 1739777</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P2C_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R2-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
